--- a/6-Annexe6-1-Tableau-de-synthese-EpreuveE4-BTS SIO 2023 1.xlsx
+++ b/6-Annexe6-1-Tableau-de-synthese-EpreuveE4-BTS SIO 2023 1.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utilsateur\Downloads\portfolio\portfolio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utilsateur\Downloads\portfolio v4513\portfolio 2\portfolio\portfolio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B38A5D2-E1EE-481C-B116-4C87AF4DCDFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D001C31-F335-4E68-81FE-CBD20F0419CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4548" yWindow="2268" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tableau de synthèse Épreuve E4" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tableau de synthèse Épreuve E4'!$A$1:$H$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tableau de synthèse Épreuve E4'!$A$1:$H$38</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="47">
   <si>
     <t>BTS SERVICES INFORMATIQUES AUX ORGANISATIONS</t>
   </si>
@@ -50,25 +50,13 @@
     <t xml:space="preserve">Tableau de synthèse des réalisations professionnelles </t>
   </si>
   <si>
-    <t xml:space="preserve">NOM et prénom : </t>
-  </si>
-  <si>
     <t xml:space="preserve">N° candidat : </t>
   </si>
   <si>
-    <t>Centre de formation :</t>
-  </si>
-  <si>
     <t>Option :</t>
   </si>
   <si>
-    <t>▢ SISR</t>
-  </si>
-  <si>
     <t>▢ SLAM</t>
-  </si>
-  <si>
-    <t>Adresse URL du portfolio :</t>
   </si>
   <si>
     <t>Compétences mises en œuvre
@@ -138,12 +126,6 @@
     <t>Mise en place de GLPI sur un serveur AWS</t>
   </si>
   <si>
-    <t>Développement de sites web PHP</t>
-  </si>
-  <si>
-    <t>Gestion d'un projet d'entreprise fictive</t>
-  </si>
-  <si>
     <t>Prise en main du shell Linux</t>
   </si>
   <si>
@@ -153,9 +135,6 @@
     <t>Développement d'algorythmes Python</t>
   </si>
   <si>
-    <t xml:space="preserve">Mise en place d'une veille technologique </t>
-  </si>
-  <si>
     <t>Hébergement en ligne de sites web</t>
   </si>
   <si>
@@ -171,28 +150,52 @@
     <t>Réalisations en milieu professionnel</t>
   </si>
   <si>
-    <t>Gestion d'un parc informatique</t>
-  </si>
-  <si>
     <t>Préparation et mise à disposition d'environnements de travail</t>
   </si>
   <si>
-    <t>Maintenance du matériel informatique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assistance aux utilisateurs </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Création de procédures </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gestion d'incidents </t>
-  </si>
-  <si>
-    <t>Gestion de projets</t>
-  </si>
-  <si>
     <t>IO78890</t>
+  </si>
+  <si>
+    <t>Gestion d'un parc informatique à l'aide d'outil tel que GLPI, excel…</t>
+  </si>
+  <si>
+    <t>Maintenance du matériel informatique pour PC portable, téléphone, casque…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assistance aux utilisateurs à l'aide d'outil de ticketing K1000 puis ensuite GLPI mais aussi outil de messagerie et appel téléphonique </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Création de procédures pour guider les utilisateurs sur des taches où ils peuvent être autonomes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gestion de projets pour mise en place de nouveaux outils sur le service informatique de l'entreprise avec petite et grosse réunion et mise en commun des informations </t>
+  </si>
+  <si>
+    <t>Gestion d'un projet d'entreprise fictive avec mise en place d'un LAN et comptes utilisateurs…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mise en place d'une veille technologique sur la base microsoft intune </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Déploiement de poste à l'aide de WDS </t>
+  </si>
+  <si>
+    <t>Sauvegarde De la Partie C: des utilisateurs à l'aide d'un agent VEEAM</t>
+  </si>
+  <si>
+    <t>X SISR</t>
+  </si>
+  <si>
+    <t>NOM et prénom : LIGER Cédric</t>
+  </si>
+  <si>
+    <t>Centre de formation : Saint-Michel Annecy</t>
+  </si>
+  <si>
+    <t>Adresse URL du portfolio : https://cedli74.github.io/portfolio_liger_cedric/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mise en place d'un  portail applicatif intune pour les utilisateurs de l'entreprise </t>
   </si>
 </sst>
 </file>
@@ -753,9 +756,42 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -778,39 +814,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1121,10 +1124,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AQ85"/>
+  <dimension ref="A1:AQ84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="53" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="68" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1137,124 +1140,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="26"/>
+      <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:43" ht="41.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
     </row>
     <row r="3" spans="1:43" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="28"/>
-      <c r="H3" s="34"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="45"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:43" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="12" t="s">
+    </row>
+    <row r="5" spans="1:43" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="37"/>
+    </row>
+    <row r="6" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="B6" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="C6" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:43" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="43" t="s">
+      <c r="D6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="44"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="45"/>
-    </row>
-    <row r="6" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="35" t="s">
+      <c r="E6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="41" t="s">
+      <c r="F6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="G6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="H6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="6" t="s">
+    </row>
+    <row r="7" spans="1:43" s="2" customFormat="1" ht="324.89999999999998" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="27"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="D7" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="E7" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="G7" s="24" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:43" s="2" customFormat="1" ht="324.89999999999998" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="36"/>
-      <c r="B7" s="42"/>
-      <c r="C7" s="24" t="s">
+      <c r="H7" s="25" t="s">
         <v>18</v>
-      </c>
-      <c r="D7" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" s="25" t="s">
-        <v>22</v>
       </c>
       <c r="I7"/>
       <c r="J7"/>
@@ -1293,16 +1296,16 @@
       <c r="AQ7"/>
     </row>
     <row r="8" spans="1:43" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A8" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="39"/>
+      <c r="A8" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="31"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
@@ -1341,19 +1344,19 @@
     </row>
     <row r="9" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="14"/>
       <c r="D9" s="23" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9" s="15"/>
       <c r="F9" s="23" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G9" s="23" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H9" s="16"/>
       <c r="I9"/>
@@ -1394,11 +1397,11 @@
     </row>
     <row r="10" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="23" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D10" s="15"/>
       <c r="E10" s="15"/>
@@ -1442,15 +1445,19 @@
       <c r="AQ10"/>
     </row>
     <row r="11" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="8"/>
+      <c r="A11" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="20"/>
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
       <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
+      <c r="F11" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>21</v>
+      </c>
       <c r="H11" s="16"/>
       <c r="I11"/>
       <c r="J11"/>
@@ -1489,16 +1496,18 @@
       <c r="AQ11"/>
     </row>
     <row r="12" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="20"/>
+      <c r="A12" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="8"/>
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
       <c r="E12" s="15"/>
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
-      <c r="H12" s="16"/>
+      <c r="H12" s="23" t="s">
+        <v>21</v>
+      </c>
       <c r="I12"/>
       <c r="J12"/>
       <c r="K12"/>
@@ -1537,7 +1546,7 @@
     </row>
     <row r="13" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="15"/>
@@ -1545,7 +1554,9 @@
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
-      <c r="H13" s="16"/>
+      <c r="H13" s="23" t="s">
+        <v>21</v>
+      </c>
       <c r="I13"/>
       <c r="J13"/>
       <c r="K13"/>
@@ -1583,8 +1594,8 @@
       <c r="AQ13"/>
     </row>
     <row r="14" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="22" t="s">
-        <v>30</v>
+      <c r="A14" s="9" t="s">
+        <v>25</v>
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="15"/>
@@ -1592,7 +1603,9 @@
       <c r="E14" s="15"/>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
-      <c r="H14" s="16"/>
+      <c r="H14" s="23" t="s">
+        <v>21</v>
+      </c>
       <c r="I14"/>
       <c r="J14"/>
       <c r="K14"/>
@@ -1631,7 +1644,7 @@
     </row>
     <row r="15" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="15"/>
@@ -1639,7 +1652,9 @@
       <c r="E15" s="15"/>
       <c r="F15" s="15"/>
       <c r="G15" s="15"/>
-      <c r="H15" s="16"/>
+      <c r="H15" s="23" t="s">
+        <v>21</v>
+      </c>
       <c r="I15"/>
       <c r="J15"/>
       <c r="K15"/>
@@ -1678,15 +1693,19 @@
     </row>
     <row r="16" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B16" s="8"/>
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
+      <c r="E16" s="23" t="s">
+        <v>21</v>
+      </c>
       <c r="F16" s="15"/>
       <c r="G16" s="15"/>
-      <c r="H16" s="16"/>
+      <c r="H16" s="23" t="s">
+        <v>21</v>
+      </c>
       <c r="I16"/>
       <c r="J16"/>
       <c r="K16"/>
@@ -1725,7 +1744,7 @@
     </row>
     <row r="17" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="15"/>
@@ -1733,7 +1752,9 @@
       <c r="E17" s="15"/>
       <c r="F17" s="15"/>
       <c r="G17" s="15"/>
-      <c r="H17" s="16"/>
+      <c r="H17" s="23" t="s">
+        <v>21</v>
+      </c>
       <c r="I17"/>
       <c r="J17"/>
       <c r="K17"/>
@@ -1772,7 +1793,7 @@
     </row>
     <row r="18" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B18" s="8"/>
       <c r="C18" s="15"/>
@@ -1780,7 +1801,9 @@
       <c r="E18" s="15"/>
       <c r="F18" s="15"/>
       <c r="G18" s="15"/>
-      <c r="H18" s="16"/>
+      <c r="H18" s="23" t="s">
+        <v>21</v>
+      </c>
       <c r="I18"/>
       <c r="J18"/>
       <c r="K18"/>
@@ -1819,7 +1842,7 @@
     </row>
     <row r="19" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B19" s="8"/>
       <c r="C19" s="15"/>
@@ -1827,7 +1850,9 @@
       <c r="E19" s="15"/>
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
-      <c r="H19" s="16"/>
+      <c r="H19" s="23" t="s">
+        <v>21</v>
+      </c>
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
@@ -1865,9 +1890,7 @@
       <c r="AQ19"/>
     </row>
     <row r="20" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
-        <v>36</v>
-      </c>
+      <c r="A20" s="9"/>
       <c r="B20" s="8"/>
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
@@ -2001,15 +2024,17 @@
       <c r="AP22"/>
       <c r="AQ22"/>
     </row>
-    <row r="23" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="9"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="16"/>
+    <row r="23" spans="1:43" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A23" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="31"/>
       <c r="I23"/>
       <c r="J23"/>
       <c r="K23"/>
@@ -2046,17 +2071,19 @@
       <c r="AP23"/>
       <c r="AQ23"/>
     </row>
-    <row r="24" spans="1:43" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A24" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="B24" s="38"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="39"/>
+    <row r="24" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="8"/>
+      <c r="C24" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="16"/>
       <c r="I24"/>
       <c r="J24"/>
       <c r="K24"/>
@@ -2095,14 +2122,16 @@
     </row>
     <row r="25" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B25" s="8"/>
       <c r="C25" s="15"/>
       <c r="D25" s="15"/>
       <c r="E25" s="15"/>
       <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
+      <c r="G25" s="23" t="s">
+        <v>21</v>
+      </c>
       <c r="H25" s="16"/>
       <c r="I25"/>
       <c r="J25"/>
@@ -2141,15 +2170,17 @@
       <c r="AQ25"/>
     </row>
     <row r="26" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
-        <v>39</v>
+      <c r="A26" s="21" t="s">
+        <v>34</v>
       </c>
       <c r="B26" s="8"/>
       <c r="C26" s="15"/>
       <c r="D26" s="15"/>
       <c r="E26" s="15"/>
       <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
+      <c r="G26" s="23" t="s">
+        <v>21</v>
+      </c>
       <c r="H26" s="16"/>
       <c r="I26"/>
       <c r="J26"/>
@@ -2188,12 +2219,14 @@
       <c r="AQ26"/>
     </row>
     <row r="27" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="21" t="s">
-        <v>40</v>
+      <c r="A27" s="9" t="s">
+        <v>35</v>
       </c>
       <c r="B27" s="8"/>
       <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
+      <c r="D27" s="23" t="s">
+        <v>21</v>
+      </c>
       <c r="E27" s="15"/>
       <c r="F27" s="15"/>
       <c r="G27" s="15"/>
@@ -2235,16 +2268,22 @@
       <c r="AQ27"/>
     </row>
     <row r="28" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
-        <v>41</v>
+      <c r="A28" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="B28" s="8"/>
       <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
+      <c r="D28" s="23" t="s">
+        <v>21</v>
+      </c>
       <c r="E28" s="15"/>
       <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="16"/>
+      <c r="G28" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="H28" s="23" t="s">
+        <v>21</v>
+      </c>
       <c r="I28"/>
       <c r="J28"/>
       <c r="K28"/>
@@ -2282,16 +2321,22 @@
       <c r="AQ28"/>
     </row>
     <row r="29" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="22" t="s">
-        <v>42</v>
+      <c r="A29" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="B29" s="8"/>
       <c r="C29" s="15"/>
       <c r="D29" s="15"/>
       <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="16"/>
+      <c r="F29" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="G29" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="H29" s="23" t="s">
+        <v>21</v>
+      </c>
       <c r="I29"/>
       <c r="J29"/>
       <c r="K29"/>
@@ -2330,14 +2375,16 @@
     </row>
     <row r="30" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B30" s="8"/>
       <c r="C30" s="15"/>
       <c r="D30" s="15"/>
       <c r="E30" s="15"/>
       <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
+      <c r="G30" s="23" t="s">
+        <v>21</v>
+      </c>
       <c r="H30" s="16"/>
       <c r="I30"/>
       <c r="J30"/>
@@ -2377,14 +2424,16 @@
     </row>
     <row r="31" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B31" s="8"/>
       <c r="C31" s="15"/>
       <c r="D31" s="15"/>
       <c r="E31" s="15"/>
       <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
+      <c r="G31" s="23" t="s">
+        <v>21</v>
+      </c>
       <c r="H31" s="16"/>
       <c r="I31"/>
       <c r="J31"/>
@@ -2423,14 +2472,20 @@
       <c r="AQ31"/>
     </row>
     <row r="32" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="9"/>
+      <c r="A32" s="9" t="s">
+        <v>46</v>
+      </c>
       <c r="B32" s="8"/>
       <c r="C32" s="15"/>
       <c r="D32" s="15"/>
       <c r="E32" s="15"/>
       <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="16"/>
+      <c r="G32" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="H32" s="23" t="s">
+        <v>21</v>
+      </c>
       <c r="I32"/>
       <c r="J32"/>
       <c r="K32"/>
@@ -2647,15 +2702,15 @@
       <c r="AP36"/>
       <c r="AQ36"/>
     </row>
-    <row r="37" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="9"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="15"/>
-      <c r="G37" s="15"/>
-      <c r="H37" s="16"/>
+    <row r="37" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="10"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="18"/>
       <c r="I37"/>
       <c r="J37"/>
       <c r="K37"/>
@@ -2692,15 +2747,15 @@
       <c r="AP37"/>
       <c r="AQ37"/>
     </row>
-    <row r="38" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="10"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="18"/>
+    <row r="38" spans="1:43" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A38" s="5"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
       <c r="I38"/>
       <c r="J38"/>
       <c r="K38"/>
@@ -2737,51 +2792,7 @@
       <c r="AP38"/>
       <c r="AQ38"/>
     </row>
-    <row r="39" spans="1:43" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A39" s="5"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39"/>
-      <c r="J39"/>
-      <c r="K39"/>
-      <c r="L39"/>
-      <c r="M39"/>
-      <c r="N39"/>
-      <c r="O39"/>
-      <c r="P39"/>
-      <c r="Q39"/>
-      <c r="R39"/>
-      <c r="S39"/>
-      <c r="T39"/>
-      <c r="U39"/>
-      <c r="V39"/>
-      <c r="W39"/>
-      <c r="X39"/>
-      <c r="Y39"/>
-      <c r="Z39"/>
-      <c r="AA39"/>
-      <c r="AB39"/>
-      <c r="AC39"/>
-      <c r="AD39"/>
-      <c r="AE39"/>
-      <c r="AF39"/>
-      <c r="AG39"/>
-      <c r="AH39"/>
-      <c r="AI39"/>
-      <c r="AJ39"/>
-      <c r="AK39"/>
-      <c r="AL39"/>
-      <c r="AM39"/>
-      <c r="AN39"/>
-      <c r="AO39"/>
-      <c r="AP39"/>
-      <c r="AQ39"/>
-    </row>
+    <row r="39" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="40" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="41" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="42" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -2827,20 +2838,19 @@
     <row r="82" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="83" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="84" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="85" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="A24:H24"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A5:H5"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="F3:H3"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="A23:H23"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A5:H5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -2851,12 +2861,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B58C405B5D5D424F89F69367FF89C307" ma:contentTypeVersion="3" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="fa8d47f27e638ee7aae234b1783b8a22">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="93fe0dac-e49b-47da-a464-e64b463a1894" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b15ac6841028dbb32dc4d56695a1eee3" ns2:_="">
     <xsd:import namespace="93fe0dac-e49b-47da-a464-e64b463a1894"/>
@@ -2994,6 +2998,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -3004,22 +3014,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A9925742-D32C-4E8C-8DFF-968131EE161F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="93fe0dac-e49b-47da-a464-e64b463a1894"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F67956A4-763C-4161-AFC7-44CFD707B239}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3037,6 +3031,22 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A9925742-D32C-4E8C-8DFF-968131EE161F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="93fe0dac-e49b-47da-a464-e64b463a1894"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F07B44DB-04A9-400D-93E2-A343E9CE7BB7}">
   <ds:schemaRefs>
